--- a/tables/table9.xlsx
+++ b/tables/table9.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.59</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>380399</t>
+          <t>1111430</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.53</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>306158</t>
+          <t>889000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">

--- a/tables/table9.xlsx
+++ b/tables/table9.xlsx
@@ -417,24 +417,14 @@
           <t>60 - 69</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -454,24 +444,14 @@
           <t>70 - 79</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -491,24 +471,14 @@
           <t>80 - 89</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -528,24 +498,14 @@
           <t>90 plus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -572,19 +532,9 @@
           <t>Less than Primary</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -609,16 +559,6 @@
           <t>Primary</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.25</t>
@@ -626,7 +566,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -646,19 +586,9 @@
           <t>Secondary</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -683,16 +613,6 @@
           <t>University</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.13</t>
@@ -700,7 +620,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -727,16 +647,6 @@
           <t>Household Size</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>2.23</t>
@@ -764,19 +674,9 @@
           <t>Lives Alone</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -801,19 +701,9 @@
           <t>Lives with Child</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -838,19 +728,9 @@
           <t>Married/Cohabiting</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -924,24 +804,14 @@
           <t>60 - 69</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -961,24 +831,14 @@
           <t>70 - 79</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -998,24 +858,14 @@
           <t>80 - 89</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1035,16 +885,6 @@
           <t>90 plus</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.02</t>
@@ -1079,16 +919,6 @@
           <t>Less than Primary</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.21</t>
@@ -1096,7 +926,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1116,16 +946,6 @@
           <t>Primary</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.27</t>
@@ -1133,7 +953,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1153,16 +973,6 @@
           <t>Secondary</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.38</t>
@@ -1170,7 +980,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1190,16 +1000,6 @@
           <t>University</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.14</t>
@@ -1207,7 +1007,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1234,16 +1034,6 @@
           <t>Household Size</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>2.4</t>
@@ -1251,7 +1041,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1271,19 +1061,9 @@
           <t>Lives Alone</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1308,16 +1088,6 @@
           <t>Lives with Child</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.24</t>
@@ -1345,16 +1115,6 @@
           <t>Married/Cohabiting</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.67</t>
@@ -1362,7 +1122,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">

--- a/tables/table9.xlsx
+++ b/tables/table9.xlsx
@@ -419,12 +419,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -473,12 +473,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -500,12 +500,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -588,22 +588,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.62</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.41</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -833,12 +833,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -860,12 +860,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.56</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
